--- a/docs/Extension-CareConnect-CareSettingType-1.xlsx
+++ b/docs/Extension-CareConnect-CareSettingType-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="133">
   <si>
     <t>Path</t>
   </si>
@@ -228,10 +228,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -244,6 +241,16 @@
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -253,16 +260,13 @@
     <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-CareSettingType-1</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.valueCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>Extension.valueCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>Extension.valueCodeableConcept.coding</t>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding</t>
   </si>
   <si>
     <t>Y</t>
@@ -290,13 +294,13 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Extension.valueCodeableConcept.coding.id</t>
-  </si>
-  <si>
-    <t>Extension.valueCodeableConcept.coding.extension</t>
-  </si>
-  <si>
-    <t>Extension.valueCodeableConcept.coding.system</t>
+    <t>Extension.value[x].coding.id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -320,7 +324,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Extension.valueCodeableConcept.coding.version</t>
+    <t>Extension.value[x].coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -338,7 +342,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Extension.valueCodeableConcept.coding.code</t>
+    <t>Extension.value[x].coding.code</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -360,7 +364,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Extension.valueCodeableConcept.coding.display</t>
+    <t>Extension.value[x].coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -378,7 +382,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Extension.valueCodeableConcept.coding.userSelected</t>
+    <t>Extension.value[x].coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -403,7 +407,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Extension.valueCodeableConcept.text</t>
+    <t>Extension.value[x].text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -570,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -579,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.63671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1135,15 +1139,13 @@
       <c r="A6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>45</v>
@@ -1158,13 +1160,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1191,31 +1193,29 @@
         <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="X6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1235,15 +1235,17 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>45</v>
@@ -1258,13 +1260,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1291,13 +1293,13 @@
         <v>37</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>37</v>
@@ -1315,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1330,7 +1332,7 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1339,14 +1341,14 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1358,17 +1360,15 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>37</v>
@@ -1405,25 +1405,25 @@
         <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1441,14 +1441,14 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1457,23 +1457,21 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>37</v>
       </c>
@@ -1509,19 +1507,19 @@
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1536,12 +1534,12 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1549,7 +1547,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>45</v>
@@ -1561,19 +1559,23 @@
         <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>37</v>
       </c>
@@ -1621,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1636,7 +1638,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1645,14 +1647,14 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1664,17 +1666,15 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>37</v>
@@ -1711,25 +1711,25 @@
         <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1747,14 +1747,14 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1763,29 +1763,27 @@
         <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>37</v>
@@ -1815,25 +1813,25 @@
         <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1842,12 +1840,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1855,10 +1853,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1867,27 +1865,29 @@
         <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1929,7 +1929,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1944,12 +1944,12 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1957,10 +1957,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1969,21 +1969,21 @@
         <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>37</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -2046,12 +2046,12 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2071,20 +2071,20 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>37</v>
@@ -2133,7 +2133,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2148,12 +2148,12 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2161,10 +2161,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2173,22 +2173,20 @@
         <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>37</v>
@@ -2237,7 +2235,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2252,12 +2250,12 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2277,22 +2275,22 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>37</v>
@@ -2341,26 +2339,130 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>131</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2370,7 +2472,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
